--- a/Trunk/Doc/Sprint-Backlog-Sprint-04#.xlsx
+++ b/Trunk/Doc/Sprint-Backlog-Sprint-04#.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="61">
   <si>
     <t>d1</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Bruno Monteiro</t>
   </si>
   <si>
-    <t>BACKLOG DA SPRINT Nº &lt;3#&gt;</t>
-  </si>
-  <si>
     <t>Como ciclista quero qualificar a rota que participei</t>
   </si>
   <si>
@@ -204,13 +201,10 @@
     <t xml:space="preserve">Criar Validações </t>
   </si>
   <si>
-    <t>Não informado</t>
-  </si>
-  <si>
     <t>Marcus</t>
   </si>
   <si>
-    <t>Não iniciado</t>
+    <t>BACKLOG DA SPRINT Nº &lt;4#&gt;</t>
   </si>
 </sst>
 </file>
@@ -250,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,18 +266,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +511,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,25 +544,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1231,11 +1204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112819584"/>
-        <c:axId val="112825472"/>
+        <c:axId val="34139520"/>
+        <c:axId val="112481408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112819584"/>
+        <c:axId val="34139520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,7 +1228,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112825472"/>
+        <c:crossAx val="112481408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1263,7 +1236,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112825472"/>
+        <c:axId val="112481408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1263,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112819584"/>
+        <c:crossAx val="34139520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U70" sqref="U70"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,82 +1623,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+      <c r="A1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1770,10 +1743,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="3">
         <f>SUM(E7:E9)+SUM(E11:E13)</f>
         <v>4</v>
@@ -1863,7 +1836,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="9">
         <v>3</v>
@@ -1917,16 +1890,16 @@
         <v>22</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -1971,16 +1944,16 @@
         <v>23</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
@@ -2024,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
@@ -2051,7 +2024,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="9">
         <v>3</v>
@@ -2105,16 +2078,16 @@
         <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -2159,16 +2132,16 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -2239,7 +2212,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="9">
         <v>5</v>
@@ -2293,11 +2266,11 @@
         <v>22</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E16" s="9">
         <v>0</v>
       </c>
@@ -2305,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
@@ -2347,11 +2320,11 @@
         <v>23</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E17" s="9">
         <v>0</v>
       </c>
@@ -2359,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -2427,7 +2400,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="9">
         <v>3</v>
@@ -2481,16 +2454,16 @@
         <v>22</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
@@ -2535,16 +2508,16 @@
         <v>23</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="E21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
@@ -2672,13 +2645,13 @@
         <v>40</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
@@ -2726,13 +2699,13 @@
         <v>40</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
@@ -2860,10 +2833,10 @@
         <v>40</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="10">
         <v>0</v>
@@ -2914,10 +2887,10 @@
         <v>40</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="10">
         <v>0</v>
@@ -2988,10 +2961,10 @@
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="9">
         <v>2</v>
@@ -3071,7 +3044,7 @@
         <v>21</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="9">
         <v>4</v>
@@ -3125,7 +3098,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
@@ -3179,7 +3152,7 @@
         <v>23</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
@@ -3256,7 +3229,7 @@
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>31</v>
@@ -3339,7 +3312,7 @@
         <v>21</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="9">
         <v>4</v>
@@ -3393,7 +3366,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>
@@ -3447,7 +3420,7 @@
         <v>23</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="10">
         <v>1</v>
@@ -4097,46 +4070,46 @@
         <v>4</v>
       </c>
       <c r="E55" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R55" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4154,43 +4127,43 @@
         <v>1</v>
       </c>
       <c r="F56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4208,43 +4181,43 @@
         <v>1</v>
       </c>
       <c r="F57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -4252,7 +4225,7 @@
         <v>31</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4">
@@ -4285,46 +4258,46 @@
         <v>4</v>
       </c>
       <c r="E59" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R59" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4342,43 +4315,43 @@
         <v>1</v>
       </c>
       <c r="F60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -4396,73 +4369,71 @@
         <v>1</v>
       </c>
       <c r="F61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>39</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14">
+      <c r="B62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4">
         <v>10</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="15"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
@@ -4470,7 +4441,7 @@
         <v>21</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="9">
         <v>0</v>
@@ -4524,7 +4495,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
@@ -4578,7 +4549,7 @@
         <v>23</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D65" s="9">
         <v>0</v>
@@ -4626,34 +4597,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+    <row r="66" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>41</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14">
+      <c r="B66" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4">
         <v>10</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="15"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
@@ -4661,7 +4630,7 @@
         <v>21</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D67" s="9">
         <v>8</v>
@@ -4715,7 +4684,7 @@
         <v>22</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D68" s="10">
         <v>1</v>
@@ -4769,7 +4738,7 @@
         <v>23</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D69" s="10">
         <v>1</v>
@@ -4817,34 +4786,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+    <row r="70" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>43</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14">
+      <c r="B70" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4">
         <v>10</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="15"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
@@ -4852,7 +4819,7 @@
         <v>21</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D71" s="9">
         <v>8</v>
@@ -4906,7 +4873,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D72" s="10">
         <v>1</v>
@@ -4960,7 +4927,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D73" s="10">
         <v>1</v>
@@ -5013,7 +4980,7 @@
         <v>37</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4">
@@ -5040,7 +5007,7 @@
         <v>21</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D75" s="9">
         <v>8</v>
@@ -5094,7 +5061,7 @@
         <v>22</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D76" s="10">
         <v>1</v>
@@ -5148,7 +5115,7 @@
         <v>23</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D77" s="10">
         <v>1</v>
@@ -5201,7 +5168,7 @@
         <v>38</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4">
@@ -5228,7 +5195,7 @@
         <v>21</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D79" s="9">
         <v>8</v>
@@ -5282,7 +5249,7 @@
         <v>22</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D80" s="10">
         <v>1</v>
@@ -5336,7 +5303,7 @@
         <v>23</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D81" s="10">
         <v>1</v>
@@ -5389,7 +5356,7 @@
         <v>40</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4">
@@ -5416,7 +5383,7 @@
         <v>21</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D83" s="9">
         <v>8</v>
@@ -5470,7 +5437,7 @@
         <v>22</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D84" s="10">
         <v>1</v>
@@ -5524,7 +5491,7 @@
         <v>23</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D85" s="10">
         <v>1</v>
@@ -5577,7 +5544,7 @@
         <v>42</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4">
@@ -5604,7 +5571,7 @@
         <v>21</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D87" s="9">
         <v>8</v>
@@ -5658,7 +5625,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D88" s="10">
         <v>1</v>
@@ -5712,7 +5679,7 @@
         <v>23</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D89" s="10">
         <v>1</v>
@@ -5761,33 +5728,31 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="16">
-        <v>8</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16">
+      <c r="A90" s="4">
+        <v>8</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4">
         <v>10</v>
       </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="16"/>
-      <c r="S90" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="15"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
@@ -5952,33 +5917,31 @@
       </c>
     </row>
     <row r="94" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="16">
+      <c r="A94" s="4">
         <v>10</v>
       </c>
-      <c r="B94" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16">
+      <c r="B94" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4">
         <v>10</v>
       </c>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="16"/>
-      <c r="S94" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="15"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
@@ -6143,33 +6106,31 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="16">
+      <c r="A98" s="4">
         <v>14</v>
       </c>
-      <c r="B98" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16">
+      <c r="B98" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4">
         <v>10</v>
       </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16"/>
-      <c r="S98" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="15"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
@@ -6334,41 +6295,39 @@
       </c>
     </row>
     <row r="102" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="16">
+      <c r="A102" s="4">
         <v>28</v>
       </c>
-      <c r="B102" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16">
+      <c r="B102" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4">
         <v>10</v>
       </c>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="16"/>
-      <c r="N102" s="16"/>
-      <c r="O102" s="16"/>
-      <c r="P102" s="16"/>
-      <c r="Q102" s="16"/>
-      <c r="R102" s="16"/>
-      <c r="S102" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="15"/>
+    </row>
+    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D103" s="9">
         <v>8</v>
@@ -6416,13 +6375,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D104" s="10">
         <v>1</v>
@@ -6470,13 +6429,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D105" s="10">
         <v>1</v>
@@ -6525,33 +6484,31 @@
       </c>
     </row>
     <row r="106" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="16">
+      <c r="A106" s="4">
         <v>32</v>
       </c>
-      <c r="B106" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16">
+      <c r="B106" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4">
         <v>10</v>
       </c>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="16"/>
-      <c r="S106" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="15"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
@@ -6716,33 +6673,31 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="16">
+      <c r="A110" s="4">
         <v>45</v>
       </c>
-      <c r="B110" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16">
+      <c r="B110" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4">
         <v>10</v>
       </c>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="16"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="16"/>
-      <c r="N110" s="16"/>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16"/>
-      <c r="Q110" s="16"/>
-      <c r="R110" s="16"/>
-      <c r="S110" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="15"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
@@ -6906,12 +6861,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>47</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4">
@@ -7105,7 +7060,7 @@
     <mergeCell ref="E3:R3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
